--- a/choice_cards/card_database.xlsx
+++ b/choice_cards/card_database.xlsx
@@ -141,271 +141,271 @@
     <t>card_url_1</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_1_card_1.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_2_card_1.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_3_card_1.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_4_card_1.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_5_card_1.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_6_card_1.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_7_card_1.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_1_card_1.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_2_card_1.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_3_card_1.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_4_card_1.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_5_card_1.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_6_card_1.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_7_card_1.png</t>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_1_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_2_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_3_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_4_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_5_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_6_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_7_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_1_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_2_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_3_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_4_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_5_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_6_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_7_card_1.png</t>
   </si>
   <si>
     <t>card_url_2</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_1_card_2.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_2_card_2.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_3_card_2.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_4_card_2.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_5_card_2.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_6_card_2.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_7_card_2.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_1_card_2.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_2_card_2.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_3_card_2.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_4_card_2.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_5_card_2.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_6_card_2.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_7_card_2.png</t>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_1_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_2_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_3_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_4_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_5_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_6_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_7_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_1_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_2_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_3_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_4_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_5_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_6_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_7_card_2.png</t>
   </si>
   <si>
     <t>card_url_3</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_1_card_3.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_2_card_3.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_3_card_3.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_4_card_3.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_5_card_3.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_6_card_3.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_7_card_3.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_1_card_3.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_2_card_3.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_3_card_3.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_4_card_3.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_5_card_3.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_6_card_3.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_7_card_3.png</t>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_1_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_2_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_3_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_4_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_5_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_6_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_7_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_1_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_2_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_3_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_4_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_5_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_6_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_7_card_3.png</t>
   </si>
   <si>
     <t>card_url_4</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_1_card_4.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_2_card_4.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_3_card_4.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_4_card_4.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_5_card_4.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_6_card_4.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_7_card_4.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_1_card_4.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_2_card_4.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_3_card_4.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_4_card_4.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_5_card_4.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_6_card_4.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_7_card_4.png</t>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_1_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_2_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_3_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_4_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_5_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_6_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_7_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_1_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_2_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_3_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_4_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_5_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_6_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_7_card_4.png</t>
   </si>
   <si>
     <t>card_url_5</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_1_card_5.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_2_card_5.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_3_card_5.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_4_card_5.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_5_card_5.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_6_card_5.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_7_card_5.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_1_card_5.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_2_card_5.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_3_card_5.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_4_card_5.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_5_card_5.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_6_card_5.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_7_card_5.png</t>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_1_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_2_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_3_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_4_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_5_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_6_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_7_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_1_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_2_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_3_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_4_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_5_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_6_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_7_card_5.png</t>
   </si>
   <si>
     <t>card_url_6</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_1_card_6.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_2_card_6.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_3_card_6.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_4_card_6.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_5_card_6.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_6_card_6.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/miles_block_7_card_6.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_1_card_6.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_2_card_6.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_3_card_6.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_4_card_6.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_5_card_6.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_6_card_6.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/bryanparthum/farmland_conservation/master/images/minutes_block_7_card_6.png</t>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_1_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_2_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_3_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_4_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_5_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_6_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_7_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_1_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_2_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_3_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_4_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_5_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_6_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_7_card_6.png</t>
   </si>
   <si>
     <t>card_url_example</t>

--- a/choice_cards/card_database.xlsx
+++ b/choice_cards/card_database.xlsx
@@ -13,15 +13,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="478">
   <si>
     <t>treatment</t>
   </si>
   <si>
-    <t>miles</t>
-  </si>
-  <si>
-    <t>minutes</t>
+    <t>far</t>
+  </si>
+  <si>
+    <t>near</t>
   </si>
   <si>
     <t>block</t>
@@ -42,6 +42,159 @@
     <t>cost1</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1,000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1,000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>1,000</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>1,000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1,000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>1,000</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>nature1</t>
   </si>
   <si>
@@ -60,6 +213,15 @@
     <t>Trails and Tables</t>
   </si>
   <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
     <t>Picnic Tables</t>
   </si>
   <si>
@@ -72,21 +234,54 @@
     <t>No Recreation</t>
   </si>
   <si>
+    <t>Picnic Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Maintained Trails</t>
+  </si>
+  <si>
     <t>Trails and Tables</t>
   </si>
   <si>
     <t>No Recreation</t>
   </si>
   <si>
+    <t>Picnic Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
+    <t>Picnic Tables</t>
+  </si>
+  <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
     <t>Maintained Trails</t>
   </si>
   <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
     <t>No Recreation</t>
   </si>
   <si>
+    <t>Picnic Tables</t>
+  </si>
+  <si>
     <t>Trails and Tables</t>
   </si>
   <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
     <t>Picnic Tables</t>
   </si>
   <si>
@@ -102,12 +297,27 @@
     <t>No Recreation</t>
   </si>
   <si>
+    <t>Picnic Tables</t>
+  </si>
+  <si>
     <t>Trails and Tables</t>
   </si>
   <si>
+    <t>Maintained Trails</t>
+  </si>
+  <si>
     <t>No Recreation</t>
   </si>
   <si>
+    <t>Picnic Tables</t>
+  </si>
+  <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
+    <t>Maintained Trails</t>
+  </si>
+  <si>
     <t>Trails and Tables</t>
   </si>
   <si>
@@ -117,108 +327,111 @@
     <t>Picnic Tables</t>
   </si>
   <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
     <t>Trails and Tables</t>
   </si>
   <si>
     <t>Picnic Tables</t>
   </si>
   <si>
+    <t>Trails and Tables</t>
+  </si>
+  <si>
     <t>Maintained Trails</t>
   </si>
   <si>
     <t>Trails and Tables</t>
   </si>
   <si>
+    <t>No Recreation</t>
+  </si>
+  <si>
     <t>Picnic Tables</t>
   </si>
   <si>
     <t>Trails and Tables</t>
   </si>
   <si>
-    <t>Maintained Trails</t>
-  </si>
-  <si>
     <t>No Recreation</t>
   </si>
   <si>
-    <t>Trails and Tables</t>
-  </si>
-  <si>
-    <t>No Recreation</t>
-  </si>
-  <si>
-    <t>Maintained Trails</t>
-  </si>
-  <si>
-    <t>No Recreation</t>
-  </si>
-  <si>
-    <t>Trails and Tables</t>
-  </si>
-  <si>
     <t>Picnic Tables</t>
   </si>
   <si>
-    <t>Trails and Tables</t>
-  </si>
-  <si>
-    <t>No Recreation</t>
-  </si>
-  <si>
-    <t>Trails and Tables</t>
-  </si>
-  <si>
-    <t>No Recreation</t>
-  </si>
-  <si>
-    <t>Trails and Tables</t>
-  </si>
-  <si>
-    <t>No Recreation</t>
-  </si>
-  <si>
-    <t>Trails and Tables</t>
-  </si>
-  <si>
-    <t>No Recreation</t>
-  </si>
-  <si>
-    <t>Picnic Tables</t>
-  </si>
-  <si>
-    <t>Trails and Tables</t>
-  </si>
-  <si>
-    <t>Picnic Tables</t>
-  </si>
-  <si>
-    <t>Maintained Trails</t>
-  </si>
-  <si>
     <t>distance1</t>
   </si>
   <si>
     <t>image_nature</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_0.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_0.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_0.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_0.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
   </si>
   <si>
@@ -231,153 +444,114 @@
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_0.png</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_0.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_0.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
   </si>
   <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_80.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\nature_40.png</t>
-  </si>
-  <si>
     <t>image_farmland</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_80.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_0.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_80.png</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_80.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_80.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_0.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
   </si>
   <si>
@@ -387,12 +561,48 @@
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_80.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_0.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_80.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_80.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_0.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_80.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_80.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
   </si>
   <si>
@@ -402,132 +612,87 @@
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_80.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_0.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_80.png</t>
   </si>
   <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
-  </si>
-  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_0.png</t>
   </si>
   <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
-  </si>
-  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_80.png</t>
   </si>
   <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_80.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_80.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_80.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_80.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_120.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\farmland_80.png</t>
-  </si>
-  <si>
     <t>image_meals_nature</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_2.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_6.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_2.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_6.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_2.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_6.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_6.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
   </si>
   <si>
@@ -537,114 +702,123 @@
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_2.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_6.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_2.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_6.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_2.png</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_6.png</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_2.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_6.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_6.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_2.png</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
   </si>
   <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_2.png</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_6.png</t>
   </si>
   <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_2.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_2.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_6.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_2.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_6.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_2.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_6.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_2.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_12.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_6.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_nature_0.png</t>
-  </si>
-  <si>
     <t>image_meals_farmland</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_2.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_6.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_6.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_6.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_2.png</t>
   </si>
   <si>
@@ -654,144 +828,105 @@
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_6.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_2.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_2.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_2.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_6.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_6.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_6.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_2.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_6.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_2.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
   </si>
   <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_6.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_6.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
-  </si>
-  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_2.png</t>
   </si>
   <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_6.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_6.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_2.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_2.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_6.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_2.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_2.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_6.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_6.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_2.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_12.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_6.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_0.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\meals_farmland_6.png</t>
-  </si>
-  <si>
     <t>image_access</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Picnic Tables.png</t>
   </si>
   <si>
@@ -804,21 +939,54 @@
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Picnic Tables.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Maintained Trails.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Picnic Tables.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Picnic Tables.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Maintained Trails.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Picnic Tables.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Picnic Tables.png</t>
   </si>
   <si>
@@ -834,12 +1002,27 @@
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Picnic Tables.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Maintained Trails.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Picnic Tables.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Maintained Trails.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
   </si>
   <si>
@@ -849,442 +1032,385 @@
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Picnic Tables.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Picnic Tables.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Maintained Trails.png</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
   </si>
   <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
+  </si>
+  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Picnic Tables.png</t>
   </si>
   <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
   </si>
   <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Maintained Trails.png</t>
-  </si>
-  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
   </si>
   <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Maintained Trails.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
-  </si>
-  <si>
     <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Picnic Tables.png</t>
   </si>
   <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_No Recreation.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Picnic Tables.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Trails and Tables.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Picnic Tables.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\access_Maintained Trails.png</t>
-  </si>
-  <si>
     <t>image_distance</t>
   </si>
   <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_10.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_10.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_20.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_10.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_20.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_10.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_20.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_10.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_20.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_10.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_20.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_10.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\miles_40.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_60.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_15.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_60.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_15.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_30.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_60.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_15.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_60.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_30.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_60.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_15.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_30.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_60.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_15.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_30.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_15.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_60.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_30.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_60.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_15.png</t>
-  </si>
-  <si>
-    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\minutes_60.png</t>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_30.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_15.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_30.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_20.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_30.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_15.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_20.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_30.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_15.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_20.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_30.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_15.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_20.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_30.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_20.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_15.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_20.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_30.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\far_15.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_25.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_10.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_25.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_15.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_25.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_10.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_15.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_25.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_10.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_15.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_25.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_10.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_15.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_25.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_15.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_10.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_15.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_25.png</t>
+  </si>
+  <si>
+    <t>C:\\Users\\bparthum\\Box\\farmland_conservation\\analyze\\farmland_git\\choice_cards\\images\\near_10.png</t>
   </si>
   <si>
     <t>card_url_1</t>
   </si>
   <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_1_card_1.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_2_card_1.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_3_card_1.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_4_card_1.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_5_card_1.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_1_card_1.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_2_card_1.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_3_card_1.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_4_card_1.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_5_card_1.png</t>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_1_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_2_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_3_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_4_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_5_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_1_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_2_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_3_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_4_card_1.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_5_card_1.png</t>
   </si>
   <si>
     <t>card_url_2</t>
   </si>
   <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_1_card_2.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_2_card_2.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_3_card_2.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_4_card_2.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_5_card_2.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_1_card_2.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_2_card_2.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_3_card_2.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_4_card_2.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_5_card_2.png</t>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_1_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_2_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_3_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_4_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_5_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_1_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_2_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_3_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_4_card_2.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_5_card_2.png</t>
   </si>
   <si>
     <t>card_url_3</t>
   </si>
   <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_1_card_3.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_2_card_3.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_3_card_3.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_4_card_3.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_5_card_3.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_1_card_3.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_2_card_3.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_3_card_3.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_4_card_3.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_5_card_3.png</t>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_1_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_2_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_3_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_4_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_5_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_1_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_2_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_3_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_4_card_3.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_5_card_3.png</t>
   </si>
   <si>
     <t>card_url_4</t>
   </si>
   <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_1_card_4.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_2_card_4.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_3_card_4.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_4_card_4.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_5_card_4.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_1_card_4.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_2_card_4.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_3_card_4.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_4_card_4.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_5_card_4.png</t>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_1_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_2_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_3_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_4_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_5_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_1_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_2_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_3_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_4_card_4.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_5_card_4.png</t>
   </si>
   <si>
     <t>card_url_5</t>
   </si>
   <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_1_card_5.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_2_card_5.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_3_card_5.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_4_card_5.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_5_card_5.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_1_card_5.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_2_card_5.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_3_card_5.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_4_card_5.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_5_card_5.png</t>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_1_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_2_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_3_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_4_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_5_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_1_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_2_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_3_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_4_card_5.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_5_card_5.png</t>
   </si>
   <si>
     <t>card_url_6</t>
   </si>
   <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_1_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_2_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_3_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_4_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_5_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_1_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_2_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_3_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_4_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_5_card_6.png</t>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_1_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_2_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_3_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_4_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_5_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_1_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_2_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_3_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_4_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_5_card_6.png</t>
   </si>
   <si>
     <t>card_url_example</t>
   </si>
   <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_1_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_2_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_3_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_4_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/miles_block_5_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_1_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_2_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_3_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_4_card_6.png</t>
-  </si>
-  <si>
-    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/minutes_block_5_card_6.png</t>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_1_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_2_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_3_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_4_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/far_block_5_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_1_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_2_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_3_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_4_card_6.png</t>
+  </si>
+  <si>
+    <t>https://bryanparthum.github.io/farmland_conservation/choice_cards/cards/near_block_5_card_6.png</t>
   </si>
   <si>
     <t>title2</t>
@@ -1294,6 +1420,9 @@
   </si>
   <si>
     <t>cost2</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>nature2</t>
@@ -1386,88 +1515,88 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="K1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="L1" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M1" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="N1" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="O1" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="P1" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="Q1" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="R1" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="S1" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="T1" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="U1" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="V1" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="W1" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="X1" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="Y1" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="Z1" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="AA1" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="AB1" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="AC1" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="AD1" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="AE1" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="AF1" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="AG1" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="AH1" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2">
@@ -1486,71 +1615,71 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1">
-        <v>50</v>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
       <c r="G2" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="L2" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="N2" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="O2" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="P2" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="Q2" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="R2" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="S2" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="T2" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="U2" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="V2" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="W2" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="X2" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="Y2" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="Z2" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>469</v>
       </c>
       <c r="AB2" s="1">
         <v>0</v>
@@ -1565,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG2" s="1">
         <v>0</v>
       </c>
       <c r="AH2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1590,71 +1719,71 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1">
-        <v>5</v>
+      <c r="F3" t="s">
+        <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="I3" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
       </c>
       <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="1">
         <v>15</v>
       </c>
-      <c r="L3" s="1">
-        <v>10</v>
-      </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="N3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="O3" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="P3" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="Q3" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="R3" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="S3" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="T3" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="U3" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="V3" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="W3" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="X3" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="Y3" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="Z3" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>469</v>
       </c>
       <c r="AB3" s="1">
         <v>0</v>
@@ -1669,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="AF3" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG3" s="1">
         <v>0</v>
       </c>
       <c r="AH3" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1694,71 +1823,71 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="1">
-        <v>5</v>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
       <c r="G4" s="1">
         <v>40</v>
       </c>
       <c r="H4" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="L4" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="N4" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="O4" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="P4" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="Q4" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="R4" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="S4" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="T4" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="U4" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="V4" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="W4" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="X4" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="Y4" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="Z4" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>469</v>
       </c>
       <c r="AB4" s="1">
         <v>0</v>
@@ -1773,13 +1902,13 @@
         <v>0</v>
       </c>
       <c r="AF4" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG4" s="1">
         <v>0</v>
       </c>
       <c r="AH4" s="1">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1798,71 +1927,71 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="1">
-        <v>200</v>
+      <c r="F5" t="s">
+        <v>11</v>
       </c>
       <c r="G5" s="1">
         <v>120</v>
       </c>
       <c r="H5" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
       <c r="J5" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="L5" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="N5" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="O5" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="P5" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="Q5" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="R5" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="S5" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="T5" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="U5" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="V5" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="W5" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="X5" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="Y5" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="Z5" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>469</v>
       </c>
       <c r="AB5" s="1">
         <v>0</v>
@@ -1877,13 +2006,13 @@
         <v>0</v>
       </c>
       <c r="AF5" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG5" s="1">
         <v>0</v>
       </c>
       <c r="AH5" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -1902,71 +2031,71 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1">
-        <v>50</v>
+      <c r="F6" t="s">
+        <v>12</v>
       </c>
       <c r="G6" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H6" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="L6" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="N6" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="O6" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="P6" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="Q6" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="R6" t="s">
-        <v>306</v>
+        <v>355</v>
       </c>
       <c r="S6" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="T6" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="U6" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="V6" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="W6" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="X6" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="Y6" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="Z6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>469</v>
       </c>
       <c r="AB6" s="1">
         <v>0</v>
@@ -1981,13 +2110,13 @@
         <v>0</v>
       </c>
       <c r="AF6" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG6" s="1">
         <v>0</v>
       </c>
       <c r="AH6" s="1">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -2006,11 +2135,11 @@
       <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="1">
-        <v>100</v>
+      <c r="F7" t="s">
+        <v>13</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H7" s="1">
         <v>40</v>
@@ -2019,58 +2148,58 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="L7" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="O7" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="P7" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="Q7" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="R7" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="S7" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="T7" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="U7" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="V7" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="W7" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="X7" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="Y7" t="s">
-        <v>414</v>
+        <v>456</v>
       </c>
       <c r="Z7" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>469</v>
       </c>
       <c r="AB7" s="1">
         <v>0</v>
@@ -2085,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="AF7" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG7" s="1">
         <v>0</v>
@@ -2110,92 +2239,92 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1">
-        <v>5</v>
+      <c r="F8" t="s">
+        <v>14</v>
       </c>
       <c r="G8" s="1">
         <v>120</v>
       </c>
       <c r="H8" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="1">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" t="s">
+        <v>167</v>
+      </c>
+      <c r="O8" t="s">
+        <v>212</v>
+      </c>
+      <c r="P8" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>305</v>
+      </c>
+      <c r="R8" t="s">
+        <v>357</v>
+      </c>
+      <c r="S8" t="s">
+        <v>391</v>
+      </c>
+      <c r="T8" t="s">
+        <v>402</v>
+      </c>
+      <c r="U8" t="s">
+        <v>413</v>
+      </c>
+      <c r="V8" t="s">
+        <v>424</v>
+      </c>
+      <c r="W8" t="s">
+        <v>435</v>
+      </c>
+      <c r="X8" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>457</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>475</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1">
         <v>6</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="1">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" t="s">
-        <v>120</v>
-      </c>
-      <c r="O8" t="s">
-        <v>168</v>
-      </c>
-      <c r="P8" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>263</v>
-      </c>
-      <c r="R8" t="s">
-        <v>307</v>
-      </c>
-      <c r="S8" t="s">
-        <v>349</v>
-      </c>
-      <c r="T8" t="s">
-        <v>360</v>
-      </c>
-      <c r="U8" t="s">
-        <v>371</v>
-      </c>
-      <c r="V8" t="s">
-        <v>382</v>
-      </c>
-      <c r="W8" t="s">
-        <v>393</v>
-      </c>
-      <c r="X8" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>432</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2214,71 +2343,71 @@
       <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1">
-        <v>20</v>
+      <c r="F9" t="s">
+        <v>15</v>
       </c>
       <c r="G9" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1">
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="L9" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="N9" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="O9" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="P9" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="Q9" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="R9" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="S9" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="T9" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="U9" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="V9" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="W9" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="X9" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="Y9" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="Z9" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>469</v>
       </c>
       <c r="AB9" s="1">
         <v>0</v>
@@ -2293,13 +2422,13 @@
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG9" s="1">
         <v>0</v>
       </c>
       <c r="AH9" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2318,71 +2447,71 @@
       <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1">
-        <v>100</v>
+      <c r="F10" t="s">
+        <v>16</v>
       </c>
       <c r="G10" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H10" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="I10" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="L10" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="O10" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="P10" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="Q10" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="R10" t="s">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="S10" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="T10" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="U10" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="V10" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="W10" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="X10" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="Y10" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="Z10" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>469</v>
       </c>
       <c r="AB10" s="1">
         <v>0</v>
@@ -2397,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="AF10" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG10" s="1">
         <v>0</v>
       </c>
       <c r="AH10" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -2422,8 +2551,8 @@
       <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="1">
-        <v>50</v>
+      <c r="F11" t="s">
+        <v>16</v>
       </c>
       <c r="G11" s="1">
         <v>120</v>
@@ -2435,58 +2564,58 @@
         <v>12</v>
       </c>
       <c r="J11" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="L11" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="O11" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="P11" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="Q11" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="R11" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="S11" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="T11" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="U11" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="V11" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="W11" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="X11" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="Y11" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="Z11" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>469</v>
       </c>
       <c r="AB11" s="1">
         <v>0</v>
@@ -2501,13 +2630,13 @@
         <v>0</v>
       </c>
       <c r="AF11" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG11" s="1">
         <v>0</v>
       </c>
       <c r="AH11" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -2526,71 +2655,71 @@
       <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1">
+        <v>80</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="1">
         <v>20</v>
       </c>
-      <c r="G12" s="1">
-        <v>120</v>
-      </c>
-      <c r="H12" s="1">
-        <v>40</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="1">
-        <v>40</v>
-      </c>
       <c r="M12" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="O12" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="Q12" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="R12" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="S12" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="T12" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="U12" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="V12" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="W12" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="X12" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="Y12" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="Z12" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>469</v>
       </c>
       <c r="AB12" s="1">
         <v>0</v>
@@ -2605,13 +2734,13 @@
         <v>0</v>
       </c>
       <c r="AF12" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG12" s="1">
         <v>0</v>
       </c>
       <c r="AH12" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -2630,71 +2759,71 @@
       <c r="E13" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="1">
-        <v>200</v>
+      <c r="F13" t="s">
+        <v>18</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H13" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="L13" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M13" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="O13" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="P13" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="Q13" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="R13" t="s">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="S13" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="T13" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="U13" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="V13" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="W13" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="X13" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="Y13" t="s">
-        <v>415</v>
+        <v>457</v>
       </c>
       <c r="Z13" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>469</v>
       </c>
       <c r="AB13" s="1">
         <v>0</v>
@@ -2709,13 +2838,13 @@
         <v>0</v>
       </c>
       <c r="AF13" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG13" s="1">
         <v>0</v>
       </c>
       <c r="AH13" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -2734,71 +2863,71 @@
       <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="1">
-        <v>200</v>
+      <c r="F14" t="s">
+        <v>19</v>
       </c>
       <c r="G14" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H14" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="L14" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M14" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="P14" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="Q14" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="R14" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="S14" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="T14" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="U14" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="V14" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="W14" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="X14" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="Y14" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="Z14" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>469</v>
       </c>
       <c r="AB14" s="1">
         <v>0</v>
@@ -2813,13 +2942,13 @@
         <v>0</v>
       </c>
       <c r="AF14" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG14" s="1">
         <v>0</v>
       </c>
       <c r="AH14" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2838,71 +2967,71 @@
       <c r="E15" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="1">
-        <v>200</v>
+      <c r="F15" t="s">
+        <v>20</v>
       </c>
       <c r="G15" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H15" s="1">
         <v>40</v>
       </c>
       <c r="I15" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1">
         <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="L15" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="O15" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="P15" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="Q15" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="R15" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
       <c r="S15" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="T15" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="U15" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="V15" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="W15" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="X15" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="Y15" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="Z15" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>469</v>
       </c>
       <c r="AB15" s="1">
         <v>0</v>
@@ -2917,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="AF15" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG15" s="1">
         <v>0</v>
       </c>
       <c r="AH15" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -2942,71 +3071,71 @@
       <c r="E16" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="1">
-        <v>50</v>
+      <c r="F16" t="s">
+        <v>21</v>
       </c>
       <c r="G16" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H16" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I16" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="L16" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="O16" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="P16" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="Q16" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="R16" t="s">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="S16" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="T16" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="U16" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="V16" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="W16" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="X16" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="Y16" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="Z16" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>469</v>
       </c>
       <c r="AB16" s="1">
         <v>0</v>
@@ -3021,13 +3150,13 @@
         <v>0</v>
       </c>
       <c r="AF16" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG16" s="1">
         <v>0</v>
       </c>
       <c r="AH16" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -3046,71 +3175,71 @@
       <c r="E17" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="1">
-        <v>5</v>
+      <c r="F17" t="s">
+        <v>22</v>
       </c>
       <c r="G17" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
         <v>6</v>
       </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
       <c r="K17" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="L17" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="N17" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="P17" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="Q17" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="R17" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="S17" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="T17" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="U17" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="V17" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="W17" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="X17" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="Y17" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="Z17" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>469</v>
       </c>
       <c r="AB17" s="1">
         <v>0</v>
@@ -3125,13 +3254,13 @@
         <v>0</v>
       </c>
       <c r="AF17" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG17" s="1">
         <v>0</v>
       </c>
       <c r="AH17" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -3150,71 +3279,71 @@
       <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="1">
-        <v>50</v>
+      <c r="F18" t="s">
+        <v>23</v>
       </c>
       <c r="G18" s="1">
         <v>40</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I18" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="L18" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="N18" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="Q18" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="R18" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="S18" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="T18" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="U18" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="V18" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="W18" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="X18" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="Y18" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="Z18" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>469</v>
       </c>
       <c r="AB18" s="1">
         <v>0</v>
@@ -3229,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="AF18" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG18" s="1">
         <v>0</v>
       </c>
       <c r="AH18" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -3254,71 +3383,71 @@
       <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="1">
-        <v>200</v>
+      <c r="F19" t="s">
+        <v>23</v>
       </c>
       <c r="G19" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H19" s="1">
         <v>40</v>
       </c>
       <c r="I19" s="1">
+        <v>12</v>
+      </c>
+      <c r="J19" s="1">
         <v>2</v>
       </c>
-      <c r="J19" s="1">
-        <v>6</v>
-      </c>
       <c r="K19" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="L19" s="1">
         <v>20</v>
       </c>
       <c r="M19" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="N19" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="Q19" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="R19" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="S19" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="T19" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="U19" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="V19" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="W19" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="X19" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="Y19" t="s">
-        <v>416</v>
+        <v>458</v>
       </c>
       <c r="Z19" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>469</v>
       </c>
       <c r="AB19" s="1">
         <v>0</v>
@@ -3333,13 +3462,13 @@
         <v>0</v>
       </c>
       <c r="AF19" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG19" s="1">
         <v>0</v>
       </c>
       <c r="AH19" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -3358,71 +3487,71 @@
       <c r="E20" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="1">
-        <v>100</v>
+      <c r="F20" t="s">
+        <v>24</v>
       </c>
       <c r="G20" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
         <v>80</v>
       </c>
       <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
         <v>12</v>
       </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
       <c r="K20" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="L20" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="N20" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="P20" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="Q20" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="R20" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="S20" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="T20" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="U20" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="V20" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="W20" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="X20" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="Y20" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="Z20" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>469</v>
       </c>
       <c r="AB20" s="1">
         <v>0</v>
@@ -3437,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="AF20" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG20" s="1">
         <v>0</v>
@@ -3462,71 +3591,71 @@
       <c r="E21" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="1">
-        <v>200</v>
+      <c r="F21" t="s">
+        <v>25</v>
       </c>
       <c r="G21" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I21" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="L21" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M21" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="N21" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="O21" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="P21" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="Q21" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="R21" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="S21" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="T21" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="U21" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="V21" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="W21" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="X21" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="Y21" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="Z21" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>469</v>
       </c>
       <c r="AB21" s="1">
         <v>0</v>
@@ -3541,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="AF21" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG21" s="1">
         <v>0</v>
       </c>
       <c r="AH21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -3566,71 +3695,71 @@
       <c r="E22" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="1">
-        <v>20</v>
+      <c r="F22" t="s">
+        <v>26</v>
       </c>
       <c r="G22" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H22" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
         <v>12</v>
       </c>
       <c r="J22" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="L22" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M22" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="N22" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="O22" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="P22" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="Q22" t="s">
-        <v>272</v>
+        <v>316</v>
       </c>
       <c r="R22" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="S22" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="T22" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="U22" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="V22" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="W22" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="X22" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="Y22" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="Z22" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>469</v>
       </c>
       <c r="AB22" s="1">
         <v>0</v>
@@ -3645,13 +3774,13 @@
         <v>0</v>
       </c>
       <c r="AF22" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG22" s="1">
         <v>0</v>
       </c>
       <c r="AH22" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -3670,71 +3799,71 @@
       <c r="E23" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="1">
+        <v>80</v>
+      </c>
+      <c r="H23" s="1">
+        <v>120</v>
+      </c>
+      <c r="I23" s="1">
+        <v>6</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L23" s="1">
         <v>20</v>
       </c>
-      <c r="G23" s="1">
-        <v>120</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>12</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L23" s="1">
-        <v>10</v>
-      </c>
       <c r="M23" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="N23" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="O23" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="P23" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="Q23" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="R23" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="S23" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="T23" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="U23" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="V23" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="W23" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="X23" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="Y23" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="Z23" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>469</v>
       </c>
       <c r="AB23" s="1">
         <v>0</v>
@@ -3749,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="AF23" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG23" s="1">
         <v>0</v>
       </c>
       <c r="AH23" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -3774,92 +3903,92 @@
       <c r="E24" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="1">
-        <v>5</v>
+      <c r="F24" t="s">
+        <v>28</v>
       </c>
       <c r="G24" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H24" s="1">
         <v>120</v>
       </c>
       <c r="I24" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="L24" s="1">
+        <v>15</v>
+      </c>
+      <c r="M24" t="s">
+        <v>132</v>
+      </c>
+      <c r="N24" t="s">
+        <v>179</v>
+      </c>
+      <c r="O24" t="s">
+        <v>225</v>
+      </c>
+      <c r="P24" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>318</v>
+      </c>
+      <c r="R24" t="s">
+        <v>366</v>
+      </c>
+      <c r="S24" t="s">
+        <v>393</v>
+      </c>
+      <c r="T24" t="s">
+        <v>404</v>
+      </c>
+      <c r="U24" t="s">
+        <v>415</v>
+      </c>
+      <c r="V24" t="s">
+        <v>426</v>
+      </c>
+      <c r="W24" t="s">
+        <v>437</v>
+      </c>
+      <c r="X24" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>459</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>475</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="1">
         <v>20</v>
-      </c>
-      <c r="M24" t="s">
-        <v>83</v>
-      </c>
-      <c r="N24" t="s">
-        <v>135</v>
-      </c>
-      <c r="O24" t="s">
-        <v>179</v>
-      </c>
-      <c r="P24" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>274</v>
-      </c>
-      <c r="R24" t="s">
-        <v>319</v>
-      </c>
-      <c r="S24" t="s">
-        <v>351</v>
-      </c>
-      <c r="T24" t="s">
-        <v>362</v>
-      </c>
-      <c r="U24" t="s">
-        <v>373</v>
-      </c>
-      <c r="V24" t="s">
-        <v>384</v>
-      </c>
-      <c r="W24" t="s">
-        <v>395</v>
-      </c>
-      <c r="X24" t="s">
-        <v>406</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>417</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>432</v>
-      </c>
-      <c r="AG24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -3878,11 +4007,11 @@
       <c r="E25" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="1">
-        <v>20</v>
+      <c r="F25" t="s">
+        <v>29</v>
       </c>
       <c r="G25" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1">
         <v>120</v>
@@ -3891,58 +4020,58 @@
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K25" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="L25" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M25" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="N25" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="O25" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="P25" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="Q25" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="R25" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="S25" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="T25" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="U25" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="V25" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="W25" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="X25" t="s">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="Y25" t="s">
-        <v>417</v>
+        <v>459</v>
       </c>
       <c r="Z25" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>469</v>
       </c>
       <c r="AB25" s="1">
         <v>0</v>
@@ -3957,13 +4086,13 @@
         <v>0</v>
       </c>
       <c r="AF25" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG25" s="1">
         <v>0</v>
       </c>
       <c r="AH25" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -3982,71 +4111,71 @@
       <c r="E26" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="1">
-        <v>100</v>
+      <c r="F26" t="s">
+        <v>29</v>
       </c>
       <c r="G26" s="1">
         <v>80</v>
       </c>
       <c r="H26" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I26" s="1">
+        <v>12</v>
+      </c>
+      <c r="J26" s="1">
         <v>2</v>
       </c>
-      <c r="J26" s="1">
-        <v>12</v>
-      </c>
       <c r="K26" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="L26" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M26" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="N26" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="O26" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="P26" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="Q26" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="R26" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="S26" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="T26" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="U26" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="V26" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="W26" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="X26" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="Y26" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="Z26" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>469</v>
       </c>
       <c r="AB26" s="1">
         <v>0</v>
@@ -4061,13 +4190,13 @@
         <v>0</v>
       </c>
       <c r="AF26" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG26" s="1">
         <v>0</v>
       </c>
       <c r="AH26" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -4086,71 +4215,71 @@
       <c r="E27" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="1">
-        <v>100</v>
+      <c r="F27" t="s">
+        <v>30</v>
       </c>
       <c r="G27" s="1">
+        <v>40</v>
+      </c>
+      <c r="H27" s="1">
         <v>120</v>
       </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="L27" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M27" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="N27" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="O27" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="P27" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="Q27" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="R27" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="S27" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="T27" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="U27" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="V27" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="W27" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="X27" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="Y27" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="Z27" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>469</v>
       </c>
       <c r="AB27" s="1">
         <v>0</v>
@@ -4165,13 +4294,13 @@
         <v>0</v>
       </c>
       <c r="AF27" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG27" s="1">
         <v>0</v>
       </c>
       <c r="AH27" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -4190,71 +4319,71 @@
       <c r="E28" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="1">
-        <v>5</v>
+      <c r="F28" t="s">
+        <v>31</v>
       </c>
       <c r="G28" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H28" s="1">
         <v>120</v>
       </c>
       <c r="I28" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="1">
         <v>12</v>
       </c>
       <c r="K28" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="L28" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M28" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="N28" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="O28" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="P28" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="Q28" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="R28" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="S28" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="T28" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="U28" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="V28" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="W28" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="X28" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="Y28" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="Z28" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>469</v>
       </c>
       <c r="AB28" s="1">
         <v>0</v>
@@ -4269,13 +4398,13 @@
         <v>0</v>
       </c>
       <c r="AF28" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG28" s="1">
         <v>0</v>
       </c>
       <c r="AH28" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -4294,71 +4423,71 @@
       <c r="E29" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="1">
-        <v>50</v>
+      <c r="F29" t="s">
+        <v>32</v>
       </c>
       <c r="G29" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
         <v>12</v>
       </c>
-      <c r="J29" s="1">
-        <v>6</v>
-      </c>
       <c r="K29" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="L29" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M29" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="N29" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="O29" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="P29" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="Q29" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="R29" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="S29" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="T29" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="U29" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="V29" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="W29" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="X29" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="Y29" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="Z29" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>469</v>
       </c>
       <c r="AB29" s="1">
         <v>0</v>
@@ -4373,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AF29" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG29" s="1">
         <v>0</v>
       </c>
       <c r="AH29" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -4398,71 +4527,71 @@
       <c r="E30" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="1">
-        <v>20</v>
+      <c r="F30" t="s">
+        <v>33</v>
       </c>
       <c r="G30" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H30" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="L30" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M30" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="N30" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="O30" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="P30" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="Q30" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="R30" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="S30" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="T30" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="U30" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="V30" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="W30" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="X30" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="Y30" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="Z30" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>469</v>
       </c>
       <c r="AB30" s="1">
         <v>0</v>
@@ -4477,13 +4606,13 @@
         <v>0</v>
       </c>
       <c r="AF30" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG30" s="1">
         <v>0</v>
       </c>
       <c r="AH30" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -4502,71 +4631,71 @@
       <c r="E31" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="1">
-        <v>20</v>
+      <c r="F31" t="s">
+        <v>34</v>
       </c>
       <c r="G31" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H31" s="1">
         <v>80</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J31" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="L31" s="1">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M31" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="N31" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="O31" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="P31" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="Q31" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="R31" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="S31" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="T31" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="U31" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="V31" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="W31" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="X31" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="Y31" t="s">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="Z31" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>469</v>
       </c>
       <c r="AB31" s="1">
         <v>0</v>
@@ -4581,13 +4710,13 @@
         <v>0</v>
       </c>
       <c r="AF31" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG31" s="1">
         <v>0</v>
       </c>
       <c r="AH31" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -4606,71 +4735,71 @@
       <c r="E32" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="1">
-        <v>50</v>
+      <c r="F32" t="s">
+        <v>34</v>
       </c>
       <c r="G32" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H32" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K32" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="L32" s="1">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M32" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="N32" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="O32" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="P32" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="Q32" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="R32" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="S32" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="T32" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="U32" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="V32" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="W32" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="X32" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="Y32" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="Z32" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA32" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>469</v>
       </c>
       <c r="AB32" s="1">
         <v>0</v>
@@ -4685,13 +4814,13 @@
         <v>0</v>
       </c>
       <c r="AF32" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG32" s="1">
         <v>0</v>
       </c>
       <c r="AH32" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -4710,71 +4839,71 @@
       <c r="E33" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="1">
-        <v>5</v>
+      <c r="F33" t="s">
+        <v>35</v>
       </c>
       <c r="G33" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="I33" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1">
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="L33" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M33" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="N33" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="O33" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="P33" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="Q33" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="R33" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="S33" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="T33" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="U33" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="V33" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="W33" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="X33" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="Y33" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="Z33" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA33" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>469</v>
       </c>
       <c r="AB33" s="1">
         <v>0</v>
@@ -4789,13 +4918,13 @@
         <v>0</v>
       </c>
       <c r="AF33" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG33" s="1">
         <v>0</v>
       </c>
       <c r="AH33" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -4814,92 +4943,92 @@
       <c r="E34" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="1">
-        <v>5</v>
+      <c r="F34" t="s">
+        <v>36</v>
       </c>
       <c r="G34" s="1">
         <v>40</v>
       </c>
       <c r="H34" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="I34" s="1">
         <v>0</v>
       </c>
       <c r="J34" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="L34" s="1">
+        <v>25</v>
+      </c>
+      <c r="M34" t="s">
+        <v>141</v>
+      </c>
+      <c r="N34" t="s">
+        <v>185</v>
+      </c>
+      <c r="O34" t="s">
+        <v>232</v>
+      </c>
+      <c r="P34" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>327</v>
+      </c>
+      <c r="R34" t="s">
+        <v>372</v>
+      </c>
+      <c r="S34" t="s">
+        <v>395</v>
+      </c>
+      <c r="T34" t="s">
+        <v>406</v>
+      </c>
+      <c r="U34" t="s">
+        <v>417</v>
+      </c>
+      <c r="V34" t="s">
+        <v>428</v>
+      </c>
+      <c r="W34" t="s">
+        <v>439</v>
+      </c>
+      <c r="X34" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>475</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="1">
         <v>15</v>
-      </c>
-      <c r="M34" t="s">
-        <v>90</v>
-      </c>
-      <c r="N34" t="s">
-        <v>141</v>
-      </c>
-      <c r="O34" t="s">
-        <v>187</v>
-      </c>
-      <c r="P34" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>283</v>
-      </c>
-      <c r="R34" t="s">
-        <v>327</v>
-      </c>
-      <c r="S34" t="s">
-        <v>353</v>
-      </c>
-      <c r="T34" t="s">
-        <v>364</v>
-      </c>
-      <c r="U34" t="s">
-        <v>375</v>
-      </c>
-      <c r="V34" t="s">
-        <v>386</v>
-      </c>
-      <c r="W34" t="s">
-        <v>397</v>
-      </c>
-      <c r="X34" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>419</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>432</v>
-      </c>
-      <c r="AG34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -4918,71 +5047,71 @@
       <c r="E35" t="s">
         <v>7</v>
       </c>
-      <c r="F35" s="1">
-        <v>200</v>
+      <c r="F35" t="s">
+        <v>36</v>
       </c>
       <c r="G35" s="1">
         <v>120</v>
       </c>
       <c r="H35" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I35" s="1">
         <v>2</v>
       </c>
       <c r="J35" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="L35" s="1">
         <v>15</v>
       </c>
       <c r="M35" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="N35" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="O35" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="P35" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="Q35" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="R35" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="S35" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="T35" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="U35" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="V35" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="W35" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="X35" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="Y35" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="Z35" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA35" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>469</v>
       </c>
       <c r="AB35" s="1">
         <v>0</v>
@@ -4997,13 +5126,13 @@
         <v>0</v>
       </c>
       <c r="AF35" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG35" s="1">
         <v>0</v>
       </c>
       <c r="AH35" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
@@ -5022,71 +5151,71 @@
       <c r="E36" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="1">
-        <v>50</v>
+      <c r="F36" t="s">
+        <v>37</v>
       </c>
       <c r="G36" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H36" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="I36" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J36" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K36" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="L36" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M36" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="N36" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="O36" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="P36" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="Q36" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="R36" t="s">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="S36" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="T36" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="U36" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="V36" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="W36" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="X36" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="Y36" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="Z36" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA36" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>469</v>
       </c>
       <c r="AB36" s="1">
         <v>0</v>
@@ -5101,13 +5230,13 @@
         <v>0</v>
       </c>
       <c r="AF36" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG36" s="1">
         <v>0</v>
       </c>
       <c r="AH36" s="1">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
@@ -5126,11 +5255,11 @@
       <c r="E37" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="1">
-        <v>100</v>
+      <c r="F37" t="s">
+        <v>38</v>
       </c>
       <c r="G37" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H37" s="1">
         <v>40</v>
@@ -5139,58 +5268,58 @@
         <v>0</v>
       </c>
       <c r="J37" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="L37" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M37" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="N37" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="O37" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="P37" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="Q37" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="R37" t="s">
-        <v>328</v>
+        <v>375</v>
       </c>
       <c r="S37" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="T37" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="U37" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="V37" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="W37" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="X37" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="Y37" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="Z37" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>469</v>
       </c>
       <c r="AB37" s="1">
         <v>0</v>
@@ -5205,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="AF37" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG37" s="1">
         <v>0</v>
@@ -5230,92 +5359,92 @@
       <c r="E38" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="1">
-        <v>5</v>
+      <c r="F38" t="s">
+        <v>39</v>
       </c>
       <c r="G38" s="1">
         <v>120</v>
       </c>
       <c r="H38" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>95</v>
+      </c>
+      <c r="L38" s="1">
+        <v>15</v>
+      </c>
+      <c r="M38" t="s">
+        <v>142</v>
+      </c>
+      <c r="N38" t="s">
+        <v>189</v>
+      </c>
+      <c r="O38" t="s">
+        <v>235</v>
+      </c>
+      <c r="P38" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>330</v>
+      </c>
+      <c r="R38" t="s">
+        <v>376</v>
+      </c>
+      <c r="S38" t="s">
+        <v>396</v>
+      </c>
+      <c r="T38" t="s">
+        <v>407</v>
+      </c>
+      <c r="U38" t="s">
+        <v>418</v>
+      </c>
+      <c r="V38" t="s">
+        <v>429</v>
+      </c>
+      <c r="W38" t="s">
+        <v>440</v>
+      </c>
+      <c r="X38" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>462</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>475</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="1">
         <v>6</v>
-      </c>
-      <c r="K38" t="s">
-        <v>42</v>
-      </c>
-      <c r="L38" s="1">
-        <v>60</v>
-      </c>
-      <c r="M38" t="s">
-        <v>94</v>
-      </c>
-      <c r="N38" t="s">
-        <v>143</v>
-      </c>
-      <c r="O38" t="s">
-        <v>190</v>
-      </c>
-      <c r="P38" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>286</v>
-      </c>
-      <c r="R38" t="s">
-        <v>328</v>
-      </c>
-      <c r="S38" t="s">
-        <v>354</v>
-      </c>
-      <c r="T38" t="s">
-        <v>365</v>
-      </c>
-      <c r="U38" t="s">
-        <v>376</v>
-      </c>
-      <c r="V38" t="s">
-        <v>387</v>
-      </c>
-      <c r="W38" t="s">
-        <v>398</v>
-      </c>
-      <c r="X38" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>420</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>432</v>
-      </c>
-      <c r="AG38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -5334,71 +5463,71 @@
       <c r="E39" t="s">
         <v>7</v>
       </c>
-      <c r="F39" s="1">
-        <v>20</v>
+      <c r="F39" t="s">
+        <v>40</v>
       </c>
       <c r="G39" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H39" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I39" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" s="1">
         <v>12</v>
       </c>
       <c r="K39" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="L39" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M39" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="N39" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="O39" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="P39" t="s">
-        <v>239</v>
+        <v>283</v>
       </c>
       <c r="Q39" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="R39" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="S39" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="T39" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="U39" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="V39" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="W39" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="X39" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="Y39" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="Z39" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>469</v>
       </c>
       <c r="AB39" s="1">
         <v>0</v>
@@ -5413,13 +5542,13 @@
         <v>0</v>
       </c>
       <c r="AF39" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG39" s="1">
         <v>0</v>
       </c>
       <c r="AH39" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -5438,71 +5567,71 @@
       <c r="E40" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="1">
-        <v>100</v>
+      <c r="F40" t="s">
+        <v>41</v>
       </c>
       <c r="G40" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H40" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="I40" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="L40" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M40" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="N40" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="O40" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="P40" t="s">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="Q40" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="R40" t="s">
-        <v>330</v>
+        <v>377</v>
       </c>
       <c r="S40" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="T40" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="U40" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="V40" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="W40" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="X40" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="Y40" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="Z40" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA40" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>469</v>
       </c>
       <c r="AB40" s="1">
         <v>0</v>
@@ -5517,13 +5646,13 @@
         <v>0</v>
       </c>
       <c r="AF40" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG40" s="1">
         <v>0</v>
       </c>
       <c r="AH40" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -5542,8 +5671,8 @@
       <c r="E41" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="1">
-        <v>50</v>
+      <c r="F41" t="s">
+        <v>41</v>
       </c>
       <c r="G41" s="1">
         <v>120</v>
@@ -5555,58 +5684,58 @@
         <v>12</v>
       </c>
       <c r="J41" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K41" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="L41" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M41" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="N41" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="O41" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="P41" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="Q41" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="R41" t="s">
-        <v>331</v>
+        <v>378</v>
       </c>
       <c r="S41" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="T41" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="U41" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="V41" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="W41" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="X41" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="Y41" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="Z41" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>469</v>
       </c>
       <c r="AB41" s="1">
         <v>0</v>
@@ -5621,13 +5750,13 @@
         <v>0</v>
       </c>
       <c r="AF41" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG41" s="1">
         <v>0</v>
       </c>
       <c r="AH41" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -5646,71 +5775,71 @@
       <c r="E42" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="1">
-        <v>20</v>
+      <c r="F42" t="s">
+        <v>42</v>
       </c>
       <c r="G42" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H42" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I42" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J42" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K42" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="L42" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="M42" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="N42" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="O42" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="P42" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="Q42" t="s">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="R42" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="S42" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="T42" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="U42" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="V42" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="W42" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="X42" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="Y42" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="Z42" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>469</v>
       </c>
       <c r="AB42" s="1">
         <v>0</v>
@@ -5725,13 +5854,13 @@
         <v>0</v>
       </c>
       <c r="AF42" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG42" s="1">
         <v>0</v>
       </c>
       <c r="AH42" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
@@ -5750,71 +5879,71 @@
       <c r="E43" t="s">
         <v>7</v>
       </c>
-      <c r="F43" s="1">
-        <v>200</v>
+      <c r="F43" t="s">
+        <v>43</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H43" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K43" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="L43" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M43" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="N43" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="O43" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="P43" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="Q43" t="s">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="R43" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="S43" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="T43" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="U43" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="V43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="W43" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="X43" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="Y43" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="Z43" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>469</v>
       </c>
       <c r="AB43" s="1">
         <v>0</v>
@@ -5829,13 +5958,13 @@
         <v>0</v>
       </c>
       <c r="AF43" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG43" s="1">
         <v>0</v>
       </c>
       <c r="AH43" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
@@ -5854,71 +5983,71 @@
       <c r="E44" t="s">
         <v>7</v>
       </c>
-      <c r="F44" s="1">
-        <v>200</v>
+      <c r="F44" t="s">
+        <v>44</v>
       </c>
       <c r="G44" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H44" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I44" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J44" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="L44" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M44" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="N44" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="O44" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
       <c r="Q44" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="R44" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="S44" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="T44" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="U44" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="V44" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="W44" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="X44" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="Y44" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="Z44" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>469</v>
       </c>
       <c r="AB44" s="1">
         <v>0</v>
@@ -5933,13 +6062,13 @@
         <v>0</v>
       </c>
       <c r="AF44" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG44" s="1">
         <v>0</v>
       </c>
       <c r="AH44" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45">
@@ -5958,71 +6087,71 @@
       <c r="E45" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="1">
-        <v>200</v>
+      <c r="F45" t="s">
+        <v>45</v>
       </c>
       <c r="G45" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H45" s="1">
         <v>40</v>
       </c>
       <c r="I45" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J45" s="1">
         <v>12</v>
       </c>
       <c r="K45" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="L45" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M45" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="N45" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="O45" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="P45" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="Q45" t="s">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="R45" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="S45" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="T45" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="U45" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="V45" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="W45" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="X45" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="Y45" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="Z45" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA45" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>469</v>
       </c>
       <c r="AB45" s="1">
         <v>0</v>
@@ -6037,13 +6166,13 @@
         <v>0</v>
       </c>
       <c r="AF45" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG45" s="1">
         <v>0</v>
       </c>
       <c r="AH45" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -6062,71 +6191,71 @@
       <c r="E46" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="1">
-        <v>50</v>
+      <c r="F46" t="s">
+        <v>46</v>
       </c>
       <c r="G46" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="H46" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="I46" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J46" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="L46" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M46" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="N46" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="O46" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="P46" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="Q46" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="R46" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="S46" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="T46" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="U46" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="V46" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="W46" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="X46" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="Y46" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="Z46" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA46" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>469</v>
       </c>
       <c r="AB46" s="1">
         <v>0</v>
@@ -6141,13 +6270,13 @@
         <v>0</v>
       </c>
       <c r="AF46" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG46" s="1">
         <v>0</v>
       </c>
       <c r="AH46" s="1">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -6166,71 +6295,71 @@
       <c r="E47" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="1">
-        <v>5</v>
+      <c r="F47" t="s">
+        <v>47</v>
       </c>
       <c r="G47" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H47" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I47" s="1">
+        <v>2</v>
+      </c>
+      <c r="J47" s="1">
         <v>6</v>
       </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
       <c r="K47" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="L47" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M47" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="N47" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="O47" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="P47" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="Q47" t="s">
-        <v>293</v>
+        <v>336</v>
       </c>
       <c r="R47" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="S47" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="T47" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="U47" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="V47" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="W47" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="X47" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="Y47" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="Z47" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA47" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>469</v>
       </c>
       <c r="AB47" s="1">
         <v>0</v>
@@ -6245,13 +6374,13 @@
         <v>0</v>
       </c>
       <c r="AF47" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG47" s="1">
         <v>0</v>
       </c>
       <c r="AH47" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
@@ -6270,71 +6399,71 @@
       <c r="E48" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="1">
-        <v>50</v>
+      <c r="F48" t="s">
+        <v>48</v>
       </c>
       <c r="G48" s="1">
         <v>40</v>
       </c>
       <c r="H48" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I48" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J48" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K48" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="L48" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M48" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="N48" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="O48" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="P48" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="Q48" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="R48" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="S48" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="T48" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="U48" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="V48" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="W48" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="X48" t="s">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="Y48" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="Z48" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>469</v>
       </c>
       <c r="AB48" s="1">
         <v>0</v>
@@ -6349,13 +6478,13 @@
         <v>0</v>
       </c>
       <c r="AF48" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG48" s="1">
         <v>0</v>
       </c>
       <c r="AH48" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -6374,92 +6503,92 @@
       <c r="E49" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="1">
-        <v>200</v>
+      <c r="F49" t="s">
+        <v>48</v>
       </c>
       <c r="G49" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H49" s="1">
         <v>40</v>
       </c>
       <c r="I49" s="1">
+        <v>12</v>
+      </c>
+      <c r="J49" s="1">
         <v>2</v>
       </c>
-      <c r="J49" s="1">
-        <v>6</v>
-      </c>
       <c r="K49" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="L49" s="1">
+        <v>15</v>
+      </c>
+      <c r="M49" t="s">
+        <v>151</v>
+      </c>
+      <c r="N49" t="s">
+        <v>197</v>
+      </c>
+      <c r="O49" t="s">
+        <v>244</v>
+      </c>
+      <c r="P49" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>338</v>
+      </c>
+      <c r="R49" t="s">
+        <v>382</v>
+      </c>
+      <c r="S49" t="s">
+        <v>397</v>
+      </c>
+      <c r="T49" t="s">
+        <v>408</v>
+      </c>
+      <c r="U49" t="s">
+        <v>419</v>
+      </c>
+      <c r="V49" t="s">
+        <v>430</v>
+      </c>
+      <c r="W49" t="s">
+        <v>441</v>
+      </c>
+      <c r="X49" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>475</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="1">
         <v>30</v>
-      </c>
-      <c r="M49" t="s">
-        <v>104</v>
-      </c>
-      <c r="N49" t="s">
-        <v>153</v>
-      </c>
-      <c r="O49" t="s">
-        <v>198</v>
-      </c>
-      <c r="P49" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>294</v>
-      </c>
-      <c r="R49" t="s">
-        <v>337</v>
-      </c>
-      <c r="S49" t="s">
-        <v>355</v>
-      </c>
-      <c r="T49" t="s">
-        <v>366</v>
-      </c>
-      <c r="U49" t="s">
-        <v>377</v>
-      </c>
-      <c r="V49" t="s">
-        <v>388</v>
-      </c>
-      <c r="W49" t="s">
-        <v>399</v>
-      </c>
-      <c r="X49" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>421</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>432</v>
-      </c>
-      <c r="AG49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="1">
-        <v>27</v>
       </c>
     </row>
     <row r="50">
@@ -6478,71 +6607,71 @@
       <c r="E50" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="1">
-        <v>100</v>
+      <c r="F50" t="s">
+        <v>49</v>
       </c>
       <c r="G50" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H50" s="1">
         <v>80</v>
       </c>
       <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
         <v>12</v>
       </c>
-      <c r="J50" s="1">
-        <v>0</v>
-      </c>
       <c r="K50" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="L50" s="1">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M50" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="N50" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="O50" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="P50" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="Q50" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="R50" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="S50" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="T50" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="U50" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="V50" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="W50" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="X50" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="Y50" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="Z50" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA50" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>469</v>
       </c>
       <c r="AB50" s="1">
         <v>0</v>
@@ -6557,7 +6686,7 @@
         <v>0</v>
       </c>
       <c r="AF50" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG50" s="1">
         <v>0</v>
@@ -6582,71 +6711,71 @@
       <c r="E51" t="s">
         <v>7</v>
       </c>
-      <c r="F51" s="1">
-        <v>200</v>
+      <c r="F51" t="s">
+        <v>50</v>
       </c>
       <c r="G51" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H51" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I51" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J51" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="L51" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M51" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="N51" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="O51" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="P51" t="s">
-        <v>247</v>
+        <v>292</v>
       </c>
       <c r="Q51" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="R51" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="S51" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="T51" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="U51" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="V51" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="W51" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="X51" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="Y51" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="Z51" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA51" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>469</v>
       </c>
       <c r="AB51" s="1">
         <v>0</v>
@@ -6661,13 +6790,13 @@
         <v>0</v>
       </c>
       <c r="AF51" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG51" s="1">
         <v>0</v>
       </c>
       <c r="AH51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -6686,71 +6815,71 @@
       <c r="E52" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="1">
-        <v>20</v>
+      <c r="F52" t="s">
+        <v>51</v>
       </c>
       <c r="G52" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H52" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I52" s="1">
         <v>12</v>
       </c>
       <c r="J52" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="L52" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M52" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="N52" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="O52" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="P52" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="Q52" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="R52" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="S52" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="T52" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="U52" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="V52" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="W52" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="X52" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="Y52" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="Z52" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA52" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>469</v>
       </c>
       <c r="AB52" s="1">
         <v>0</v>
@@ -6765,13 +6894,13 @@
         <v>0</v>
       </c>
       <c r="AF52" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG52" s="1">
         <v>0</v>
       </c>
       <c r="AH52" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53">
@@ -6790,71 +6919,71 @@
       <c r="E53" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="1">
-        <v>20</v>
+      <c r="F53" t="s">
+        <v>52</v>
       </c>
       <c r="G53" s="1">
+        <v>80</v>
+      </c>
+      <c r="H53" s="1">
         <v>120</v>
       </c>
-      <c r="H53" s="1">
-        <v>0</v>
-      </c>
       <c r="I53" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J53" s="1">
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="L53" s="1">
         <v>15</v>
       </c>
       <c r="M53" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="N53" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="O53" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="P53" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="Q53" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="R53" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="S53" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="T53" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="U53" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="V53" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="W53" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="X53" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="Y53" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="Z53" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA53" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>469</v>
       </c>
       <c r="AB53" s="1">
         <v>0</v>
@@ -6869,13 +6998,13 @@
         <v>0</v>
       </c>
       <c r="AF53" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG53" s="1">
         <v>0</v>
       </c>
       <c r="AH53" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -6894,71 +7023,71 @@
       <c r="E54" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="1">
-        <v>5</v>
+      <c r="F54" t="s">
+        <v>53</v>
       </c>
       <c r="G54" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H54" s="1">
         <v>120</v>
       </c>
       <c r="I54" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J54" s="1">
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="L54" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M54" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="N54" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="O54" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="P54" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="Q54" t="s">
-        <v>297</v>
+        <v>343</v>
       </c>
       <c r="R54" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="S54" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="T54" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="U54" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="V54" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="W54" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="X54" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="Y54" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="Z54" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA54" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>469</v>
       </c>
       <c r="AB54" s="1">
         <v>0</v>
@@ -6973,13 +7102,13 @@
         <v>0</v>
       </c>
       <c r="AF54" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG54" s="1">
         <v>0</v>
       </c>
       <c r="AH54" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
@@ -6998,11 +7127,11 @@
       <c r="E55" t="s">
         <v>7</v>
       </c>
-      <c r="F55" s="1">
-        <v>20</v>
+      <c r="F55" t="s">
+        <v>54</v>
       </c>
       <c r="G55" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H55" s="1">
         <v>120</v>
@@ -7011,58 +7140,58 @@
         <v>0</v>
       </c>
       <c r="J55" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="L55" s="1">
         <v>15</v>
       </c>
       <c r="M55" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="N55" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="O55" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="P55" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="Q55" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="R55" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
       <c r="S55" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="T55" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="U55" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="V55" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="W55" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="X55" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="Y55" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="Z55" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA55" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>469</v>
       </c>
       <c r="AB55" s="1">
         <v>0</v>
@@ -7077,13 +7206,13 @@
         <v>0</v>
       </c>
       <c r="AF55" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG55" s="1">
         <v>0</v>
       </c>
       <c r="AH55" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56">
@@ -7102,71 +7231,71 @@
       <c r="E56" t="s">
         <v>7</v>
       </c>
-      <c r="F56" s="1">
-        <v>100</v>
+      <c r="F56" t="s">
+        <v>54</v>
       </c>
       <c r="G56" s="1">
         <v>80</v>
       </c>
       <c r="H56" s="1">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="I56" s="1">
+        <v>12</v>
+      </c>
+      <c r="J56" s="1">
         <v>2</v>
       </c>
-      <c r="J56" s="1">
-        <v>12</v>
-      </c>
       <c r="K56" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="L56" s="1">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M56" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="N56" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="O56" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="P56" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="Q56" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="R56" t="s">
-        <v>342</v>
+        <v>387</v>
       </c>
       <c r="S56" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="T56" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="U56" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="V56" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="W56" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="X56" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="Y56" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="Z56" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA56" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>469</v>
       </c>
       <c r="AB56" s="1">
         <v>0</v>
@@ -7181,13 +7310,13 @@
         <v>0</v>
       </c>
       <c r="AF56" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG56" s="1">
         <v>0</v>
       </c>
       <c r="AH56" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -7206,71 +7335,71 @@
       <c r="E57" t="s">
         <v>7</v>
       </c>
-      <c r="F57" s="1">
-        <v>100</v>
+      <c r="F57" t="s">
+        <v>55</v>
       </c>
       <c r="G57" s="1">
+        <v>40</v>
+      </c>
+      <c r="H57" s="1">
         <v>120</v>
       </c>
-      <c r="H57" s="1">
-        <v>0</v>
-      </c>
       <c r="I57" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J57" s="1">
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="L57" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M57" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="N57" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="O57" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="P57" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="Q57" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="R57" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="S57" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="T57" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="U57" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="V57" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="W57" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="X57" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="Y57" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="Z57" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA57" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>469</v>
       </c>
       <c r="AB57" s="1">
         <v>0</v>
@@ -7285,13 +7414,13 @@
         <v>0</v>
       </c>
       <c r="AF57" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG57" s="1">
         <v>0</v>
       </c>
       <c r="AH57" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -7310,71 +7439,71 @@
       <c r="E58" t="s">
         <v>7</v>
       </c>
-      <c r="F58" s="1">
-        <v>5</v>
+      <c r="F58" t="s">
+        <v>56</v>
       </c>
       <c r="G58" s="1">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H58" s="1">
         <v>120</v>
       </c>
       <c r="I58" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" s="1">
         <v>12</v>
       </c>
       <c r="K58" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="L58" s="1">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M58" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="N58" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="O58" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="P58" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="Q58" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="R58" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="S58" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="T58" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="U58" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="V58" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="W58" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="X58" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="Y58" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="Z58" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA58" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>469</v>
       </c>
       <c r="AB58" s="1">
         <v>0</v>
@@ -7389,13 +7518,13 @@
         <v>0</v>
       </c>
       <c r="AF58" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG58" s="1">
         <v>0</v>
       </c>
       <c r="AH58" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
@@ -7414,71 +7543,71 @@
       <c r="E59" t="s">
         <v>7</v>
       </c>
-      <c r="F59" s="1">
-        <v>50</v>
+      <c r="F59" t="s">
+        <v>57</v>
       </c>
       <c r="G59" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H59" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
         <v>12</v>
       </c>
-      <c r="J59" s="1">
-        <v>6</v>
-      </c>
       <c r="K59" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="L59" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M59" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="N59" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="O59" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="P59" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="Q59" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="R59" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="S59" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="T59" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="U59" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="V59" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="W59" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="X59" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="Y59" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="Z59" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA59" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>469</v>
       </c>
       <c r="AB59" s="1">
         <v>0</v>
@@ -7493,13 +7622,13 @@
         <v>0</v>
       </c>
       <c r="AF59" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG59" s="1">
         <v>0</v>
       </c>
       <c r="AH59" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
@@ -7518,71 +7647,71 @@
       <c r="E60" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="1">
-        <v>20</v>
+      <c r="F60" t="s">
+        <v>58</v>
       </c>
       <c r="G60" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H60" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I60" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J60" s="1">
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="L60" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M60" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="N60" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="O60" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="P60" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="Q60" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="R60" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="S60" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="T60" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="U60" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="V60" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="W60" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="X60" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="Y60" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="Z60" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA60" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>469</v>
       </c>
       <c r="AB60" s="1">
         <v>0</v>
@@ -7597,13 +7726,13 @@
         <v>0</v>
       </c>
       <c r="AF60" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG60" s="1">
         <v>0</v>
       </c>
       <c r="AH60" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61">
@@ -7622,71 +7751,71 @@
       <c r="E61" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="1">
-        <v>20</v>
+      <c r="F61" t="s">
+        <v>59</v>
       </c>
       <c r="G61" s="1">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H61" s="1">
         <v>80</v>
       </c>
       <c r="I61" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J61" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K61" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="L61" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M61" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="N61" t="s">
-        <v>161</v>
+        <v>206</v>
       </c>
       <c r="O61" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="P61" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="Q61" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="R61" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="S61" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="T61" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="U61" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="V61" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="W61" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="X61" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="Y61" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="Z61" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA61" s="1">
-        <v>0</v>
+        <v>467</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>469</v>
       </c>
       <c r="AB61" s="1">
         <v>0</v>
@@ -7701,13 +7830,13 @@
         <v>0</v>
       </c>
       <c r="AF61" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="AG61" s="1">
         <v>0</v>
       </c>
       <c r="AH61" s="1">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
